--- a/DateBase/orders/Dang Nguyen_2025-6-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-22.xlsx
@@ -943,6 +943,9 @@
       <c r="C61" t="str">
         <v>551_铁线莲_Glematis_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1004,7 +1007,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010128655151510101510155555555101510555551571015108.57141325.51510545515151010101055555102050</v>
+        <v>010128655151510101510155555555101510555551571015108.57141325.51510545515151010101055555102053</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -947,9 +947,60 @@
         <v>3</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>4</v>
+      </c>
+      <c r="C62" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F62" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L67"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1007,7 +1058,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010128655151510101510155555555101510555551571015108.57141325.51510545515151010101055555102053</v>
+        <v>010128655151510101510155555555101510555551571015108.57141325.5151054551515101010105555510205315205555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-22.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-22.xlsx
@@ -1060,6 +1060,9 @@
       <c r="G2" t="str">
         <v>010128655151510101510155555555101510555551571015108.57141325.5151054551515101010105555510205315205555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
